--- a/biology/Zoologie/Famille_dentaire/Famille_dentaire.xlsx
+++ b/biology/Zoologie/Famille_dentaire/Famille_dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chez les animaux chez lesquels il existe un remplacement des dents au cours de la vie de l'individu, une famille dentaire désigne l'ensemble des dents successives qui se développent en un même site dans la mâchoire.
  Portail de la zoologie                     </t>
